--- a/data/data_raw/cientista_de_dados_vagas.xlsx
+++ b/data/data_raw/cientista_de_dados_vagas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,65 +441,85 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>link_site</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>link_origem</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_publicacao</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_expiracao_vaga</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data_coleta</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>posicao</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>data_publicação</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>data_coleta</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>senioridade</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>titulo_da_vaga</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>local</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>senioridade</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>nome_da_empresa</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>cidade</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>modalidade</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>contrato</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>regime</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>beneficios</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>regime</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>codigo_vaga</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>descricao</t>
         </is>
@@ -513,57 +533,77 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>https://www.vagas.com.br/vagas/v2600201/cientista-de-dados</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Publicada em 10/01/2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024-02-10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Cientista de Dados</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.vagas.com.br/vagas/v2600201/cientista-de-dados</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Publicada em 10/01/2024</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Cientista de Dados</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Sillion Serviços de Tecnologia LTDA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Pleno</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Regime CLT</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>['Assistência médica', 'Assistência odontológica', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Regime CLT</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>v2600201</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Descrição
 Descrição: Principais responsabilidades:
@@ -607,53 +647,65 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>https://www.vagas.com.br/vagas/v2599448/especialista-em-engenharia-de-dados</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Publicada em 08/01/2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Cientista de Dados</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.vagas.com.br/vagas/v2599448/especialista-em-engenharia-de-dados</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Publicada em 08/01/2024</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Especialista em Engenharia de Dados</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Sênior</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Recovery</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>Regime CLT</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>v2599448</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Descrição
 Descrição: Na Recovery o(a) Especialista de Engenharia de Dados tem a missão de desenvolver e manter a nossa plataforma de dados estável e performática, além de aplicar técnicas de análise e modelagem para gerar insights. Garantir a qualidade, integridade e segurança dos dados, assim como colaborar de forma interdisciplinar com outros times, incluindo cientista de dados, engenheiro de softwares, analista de processos, entre outros, a fim de entender a dor do cliente e propor soluções e/ou melhorias nos processos.Todas as vagas publicadas são abertas para pessoas com deficiência. A Recovery é uma empresa que valoriza a diversidade e está em busca da construção de um ambiente mais inclusivo. Aqui todos os candidatos são bem-vindos!O que seria bacana você ter:•	Graduação completa na área de tecnologia (ciência da computação, sistemas de informação ou áreas correlatas);•	Experiência na área de Engenharia de Dados;•	Experiência em Azure Data Factory, Airflow e SSIS (integration services);•	Experiência em bancos SQL e NoSQL;•	Conhecimentos avançados em SQL, Python, Spark e PySpark;•	Experiência em Databricks;•	Conhecimentos em soluções de Engenharia de Dados em nuvem (Azure e AWS);•	Experiência em arquiteturas Data Lake e Lakehouse;•	Conhecimentos em versionamento com Git;•	Comunicação clara e objetiva;•	Prática em documentação de processos.O que você terá que fazer: •	Migrar pipelines para a nova plataforma de dados, revisando por completo o código e as regras de negócio;•	Construir novas pipelines de dados para coletar, processar e armazenar dados no Lakehouse, garantido a qualidade das informações;•	Avaliar periodicamente o desempenho das soluções de dados construídas e identificar oportunidades de melhorias;•	Apoiar na definição de arquitetura de solução de dados;•	Ser referência técnica para o time;•	Desenvolver bibliotecas e frameworks para auxiliar na padronização, segurança e performance dos processos;•	Entender o business de cada cliente, bem como suas dores, a fim de propor soluções de dados, propor melhorias nos processos e melhorar a sua experiência como usuário da plataforma de dados;•	Conduzir reuniões com os stakeholders;•	Promover a cultura data driven para todos os times.Para fechar com chave de ouro, será considerado um diferencial:•	Ter atuado em projeto de migração de DW para ambientes Data Lake ou Lakehouse;•	Conhecimento em soluções de observabilidade para monitoramento dos processos;•	Ter atuado com framework Scrum.O que oferecemos de principais benefícios para os nossos Reclovers: •	Vale Alimentação ou refeição no valor de R$ 1000 por mês, inclusive no mês das suas férias;•	Assistência médica e odontológica estendida aos dependentes; •	Participação nos Lucros e Resultados; •	Seguro de vida.Quer saber o que mais temos de legal por aqui? Dá uma olhada!•	Estimulamos que o nosso time esteja sempre em movimento, para isso temos por aqui o GymPass;•	Day off no mês do seu aniversário e sorteio de vale presente para os aniversariantes do mês;•	Nas sextas-feiras o nosso o expediente se encerra as 16h #Sextou;•	Vestimenta Casual (todos os dias): aqui você pode ser quem é! ;)•	Disponibilizamos frutas no escritório;•	Por aqui gostamos de celebrar os bons momentos, por isso temos Happy Hour com a galera no escritório 1x no mês com chopp e comidinhas;•	Auxílio Home Office de R$ 200,00 – Disponibilizado uma única vez;•	Auxílio Internet de R$ 100,00 – Disponibilizado mensalmente;•	Somos uma empresa cidadã! Licença maternidade e paternidade estendida para nossos Reclovers: 6 meses para mamães e 20 dias para os papais;•	Auxílio-creche para as mamães;•	Fique OK – Programa de apoio social para orientações através de profissionais como: psicólogo, assistente social, advogado, nutricionista, consultor financeiro, consultor pet, fisioterapeuta e personal trainer;•	Estamos trabalhando em modelo híbrido e nosso escritório fica no coração de São Paulo, a Avenida Paulista!Quer ser parte do nosso time? Vem, #todosjuntos fazemos a diferença!</t>
@@ -668,57 +720,77 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>https://www.vagas.com.br/vagas/v2600553/jovem-aprendiz-ti</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Publicada em 11/01/2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-02-11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Cientista de Dados</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.vagas.com.br/vagas/v2600553/jovem-aprendiz-ti</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Publicada em 11/01/2024</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Auxiliar/Operacional</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Jovem Aprendiz - TI</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Worley</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Auxiliar/Operacional</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Regime CLT</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>['Assistência médica', 'Assistência odontológica', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Regime CLT</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>v2600553</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Descrição
 Descrição: Não somos apenas engenheiros. Somos uma equipe global de cientistas de dados, consultores, trabalhadores da construção e inovadores, todos trabalhando para criar um amanhã melhor.Seja qual for a sua ambição, há um caminho para você aqui! #WeAreWorleyEstamos buscando uma pessoa Aprendiz para dar suporte na área de Tecnologia da Informação em projetos da Worley.Outros requisitos: 
@@ -739,57 +811,77 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>https://www.vagas.com.br/vagas/v2579647/estagio-em-engenharia-mecanica-tubulacao</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Publicada em 01/11/2023</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Cientista de Dados</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.vagas.com.br/vagas/v2579647/estagio-em-engenharia-mecanica-tubulacao</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Publicada em 01/11/2023</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Estágio</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Estágio em Engenharia Mecânica/Tubulação</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Worley</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>Estágio</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>['Assistência médica', 'Assistência odontológica', 'Bolsa auxílio', 'Convênio com empresas parceiras', 'Desconto em produtos', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Estágio</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>v2579647</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Descrição
 Descrição: Estamos buscando pessoas estagiárias para fazer parte do time de MMM em Belo Horizonte.Atividades:
